--- a/data/georgia_census/qvemo-qartli/gardabani/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/gardabani/population_total.xlsx
@@ -1348,13 +1348,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE4D106-A7D7-4FCA-9D65-DDE2FF5D9AF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870A1198-EC8F-451D-9657-0F43AD4D6D1A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C839F2CF-D160-48EE-B3F6-4C86049E7A71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97197676-FECB-4C51-8BAE-367E4E181D8C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE26FD0E-95E8-43A1-93A1-58A9FD3273A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14C90E6-B870-4D94-98EC-228675278908}"/>
 </file>